--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H2">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J2">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>277.1561110698398</v>
+        <v>45.81832398232289</v>
       </c>
       <c r="R2">
-        <v>2494.404999628558</v>
+        <v>412.364915840906</v>
       </c>
       <c r="S2">
-        <v>0.0687982632012769</v>
+        <v>0.02658838894581579</v>
       </c>
       <c r="T2">
-        <v>0.06879826320127691</v>
+        <v>0.02658838894581579</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H3">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J3">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>912.9620377203851</v>
+        <v>245.9786546946058</v>
       </c>
       <c r="R3">
-        <v>8216.658339483465</v>
+        <v>2213.807892251452</v>
       </c>
       <c r="S3">
-        <v>0.2266239135821681</v>
+        <v>0.1427414967407353</v>
       </c>
       <c r="T3">
-        <v>0.2266239135821681</v>
+        <v>0.1427414967407353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H4">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J4">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>458.9340175451808</v>
+        <v>130.4985176225671</v>
       </c>
       <c r="R4">
-        <v>4130.406157906627</v>
+        <v>1174.486658603104</v>
       </c>
       <c r="S4">
-        <v>0.1139208629000303</v>
+        <v>0.07572833403377803</v>
       </c>
       <c r="T4">
-        <v>0.1139208629000303</v>
+        <v>0.07572833403377803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.04537966666667</v>
+        <v>4.861952666666666</v>
       </c>
       <c r="H5">
-        <v>54.136139</v>
+        <v>14.585858</v>
       </c>
       <c r="I5">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435639</v>
       </c>
       <c r="J5">
-        <v>0.6797959733292525</v>
+        <v>0.3995648519435638</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>1089.528715243815</v>
+        <v>266.2528725244873</v>
       </c>
       <c r="R5">
-        <v>9805.75843719433</v>
+        <v>2396.275852720386</v>
       </c>
       <c r="S5">
-        <v>0.2704529336457772</v>
+        <v>0.1545066322232348</v>
       </c>
       <c r="T5">
-        <v>0.2704529336457772</v>
+        <v>0.1545066322232347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.800598</v>
       </c>
       <c r="I6">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J6">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>9.218365928906223</v>
+        <v>5.656189887898446</v>
       </c>
       <c r="R6">
-        <v>82.96529336015601</v>
+        <v>50.90570899108601</v>
       </c>
       <c r="S6">
-        <v>0.002288268380641125</v>
+        <v>0.003282288910193562</v>
       </c>
       <c r="T6">
-        <v>0.002288268380641124</v>
+        <v>0.003282288910193561</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.800598</v>
       </c>
       <c r="I7">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J7">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>30.36562358455689</v>
@@ -883,10 +883,10 @@
         <v>273.290612261012</v>
       </c>
       <c r="S7">
-        <v>0.007537637021883381</v>
+        <v>0.01762118166434738</v>
       </c>
       <c r="T7">
-        <v>0.00753763702188338</v>
+        <v>0.01762118166434738</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.800598</v>
       </c>
       <c r="I8">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J8">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>15.26439988865511</v>
+        <v>16.10980785869156</v>
       </c>
       <c r="R8">
-        <v>137.379598997896</v>
+        <v>144.988270728224</v>
       </c>
       <c r="S8">
-        <v>0.003789071065745356</v>
+        <v>0.009348526963895624</v>
       </c>
       <c r="T8">
-        <v>0.003789071065745357</v>
+        <v>0.009348526963895624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.800598</v>
       </c>
       <c r="I9">
-        <v>0.0226103909993416</v>
+        <v>0.04932556406896855</v>
       </c>
       <c r="J9">
-        <v>0.02261039099934159</v>
+        <v>0.04932556406896854</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>36.23832917989557</v>
+        <v>32.86843939944067</v>
       </c>
       <c r="R9">
-        <v>326.14496261906</v>
+        <v>295.815954594966</v>
       </c>
       <c r="S9">
-        <v>0.008995414531071734</v>
+        <v>0.01907356653053198</v>
       </c>
       <c r="T9">
-        <v>0.008995414531071732</v>
+        <v>0.01907356653053198</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H10">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J10">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>49.29656950074288</v>
+        <v>39.64383163994344</v>
       </c>
       <c r="R10">
-        <v>443.669125506686</v>
+        <v>356.794484759491</v>
       </c>
       <c r="S10">
-        <v>0.01223685218536469</v>
+        <v>0.02300532894550928</v>
       </c>
       <c r="T10">
-        <v>0.01223685218536469</v>
+        <v>0.02300532894550928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H11">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I11">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J11">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>162.3846444168135</v>
+        <v>212.8304906459469</v>
       </c>
       <c r="R11">
-        <v>1461.461799751322</v>
+        <v>1915.474415813522</v>
       </c>
       <c r="S11">
-        <v>0.04030862412995308</v>
+        <v>0.1235056059013959</v>
       </c>
       <c r="T11">
-        <v>0.04030862412995307</v>
+        <v>0.1235056059013959</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H12">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I12">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J12">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>81.62862657020843</v>
+        <v>112.9124946579715</v>
       </c>
       <c r="R12">
-        <v>734.6576391318758</v>
+        <v>1016.212451921744</v>
       </c>
       <c r="S12">
-        <v>0.02026261558461833</v>
+        <v>0.06552315894328119</v>
       </c>
       <c r="T12">
-        <v>0.02026261558461833</v>
+        <v>0.0655231589432812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.209654333333333</v>
+        <v>4.206754333333333</v>
       </c>
       <c r="H13">
-        <v>9.628962999999999</v>
+        <v>12.620263</v>
       </c>
       <c r="I13">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="J13">
-        <v>0.1209123959641148</v>
+        <v>0.3457193616641432</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>193.7898025295122</v>
+        <v>230.3725482425856</v>
       </c>
       <c r="R13">
-        <v>1744.10822276561</v>
+        <v>2073.35293418327</v>
       </c>
       <c r="S13">
-        <v>0.0481043040641787</v>
+        <v>0.1336852678739569</v>
       </c>
       <c r="T13">
-        <v>0.0481043040641787</v>
+        <v>0.1336852678739569</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H14">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I14">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J14">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>72.03379722367623</v>
+        <v>23.55221112026289</v>
       </c>
       <c r="R14">
-        <v>648.3041750130861</v>
+        <v>211.969900082366</v>
       </c>
       <c r="S14">
-        <v>0.01788089795910395</v>
+        <v>0.01366735610060981</v>
       </c>
       <c r="T14">
-        <v>0.01788089795910396</v>
+        <v>0.01366735610060981</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H15">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I15">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J15">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>237.2818771493469</v>
+        <v>126.4415784540858</v>
       </c>
       <c r="R15">
-        <v>2135.536894344122</v>
+        <v>1137.974206086772</v>
       </c>
       <c r="S15">
-        <v>0.05890031063720704</v>
+        <v>0.07337409085843377</v>
       </c>
       <c r="T15">
-        <v>0.05890031063720704</v>
+        <v>0.07337409085843377</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H16">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I16">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J16">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>119.2784811104751</v>
+        <v>67.08077403952711</v>
       </c>
       <c r="R16">
-        <v>1073.506329994276</v>
+        <v>603.726966355744</v>
       </c>
       <c r="S16">
-        <v>0.02960841204623179</v>
+        <v>0.03892699592498072</v>
       </c>
       <c r="T16">
-        <v>0.0296084120462318</v>
+        <v>0.03892699592498073</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.690054333333333</v>
+        <v>2.499212666666667</v>
       </c>
       <c r="H17">
-        <v>14.070163</v>
+        <v>7.497638</v>
       </c>
       <c r="I17">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="J17">
-        <v>0.1766812397072912</v>
+        <v>0.2053902223233243</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>283.1721452588456</v>
+        <v>136.8632311276273</v>
       </c>
       <c r="R17">
-        <v>2548.54930732961</v>
+        <v>1231.769080148646</v>
       </c>
       <c r="S17">
-        <v>0.0702916190647484</v>
+        <v>0.07942177943930001</v>
       </c>
       <c r="T17">
-        <v>0.0702916190647484</v>
+        <v>0.07942177943930001</v>
       </c>
     </row>
   </sheetData>
